--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Amelx-Cd63.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Amelx-Cd63.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amelx</t>
+  </si>
+  <si>
+    <t>Cd63</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Amelx</t>
-  </si>
-  <si>
-    <t>Cd63</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -531,25 +531,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.809644</v>
+        <v>0.04979866666666666</v>
       </c>
       <c r="H2">
-        <v>2.428932</v>
+        <v>0.149396</v>
       </c>
       <c r="I2">
-        <v>0.3374918898595159</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="J2">
-        <v>0.4027944001221849</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.80994433333333</v>
+        <v>16.92841533333333</v>
       </c>
       <c r="N2">
-        <v>44.429833</v>
+        <v>50.785246</v>
       </c>
       <c r="O2">
-        <v>0.02684012165618721</v>
+        <v>0.0242040298661412</v>
       </c>
       <c r="P2">
-        <v>0.02873734127486288</v>
+        <v>0.0261568218313686</v>
       </c>
       <c r="Q2">
-        <v>11.99078256981733</v>
+        <v>0.8430125123795555</v>
       </c>
       <c r="R2">
-        <v>107.917043128356</v>
+        <v>7.587112611416</v>
       </c>
       <c r="S2">
-        <v>0.009058323381805943</v>
+        <v>0.001161955333908325</v>
       </c>
       <c r="T2">
-        <v>0.01157524013991489</v>
+        <v>0.00125570241043063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +593,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.809644</v>
+        <v>0.04979866666666666</v>
       </c>
       <c r="H3">
-        <v>2.428932</v>
+        <v>0.149396</v>
       </c>
       <c r="I3">
-        <v>0.3374918898595159</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="J3">
-        <v>0.4027944001221849</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>571.412498</v>
       </c>
       <c r="O3">
-        <v>0.3451910557977076</v>
+        <v>0.2723327394629209</v>
       </c>
       <c r="P3">
-        <v>0.3695912150682156</v>
+        <v>0.2943046668003394</v>
       </c>
       <c r="Q3">
-        <v>154.2135668435707</v>
+        <v>9.485193505689777</v>
       </c>
       <c r="R3">
-        <v>1387.922101592136</v>
+        <v>85.36674155120801</v>
       </c>
       <c r="S3">
-        <v>0.11649918178377</v>
+        <v>0.01307379312316376</v>
       </c>
       <c r="T3">
-        <v>0.1488692717638313</v>
+        <v>0.01412859260519852</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +655,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.809644</v>
+        <v>0.04979866666666666</v>
       </c>
       <c r="H4">
-        <v>2.428932</v>
+        <v>0.149396</v>
       </c>
       <c r="I4">
-        <v>0.3374918898595159</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="J4">
-        <v>0.4027944001221849</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.637568</v>
+        <v>110.8005546666667</v>
       </c>
       <c r="N4">
-        <v>394.912704</v>
+        <v>332.401664</v>
       </c>
       <c r="O4">
-        <v>0.2385672937130745</v>
+        <v>0.1584212037293475</v>
       </c>
       <c r="P4">
-        <v>0.2554306505862154</v>
+        <v>0.17120269736802</v>
       </c>
       <c r="Q4">
-        <v>106.579567105792</v>
+        <v>5.51771988832711</v>
       </c>
       <c r="R4">
-        <v>959.2161039521279</v>
+        <v>49.659478994944</v>
       </c>
       <c r="S4">
-        <v>0.0805145268138957</v>
+        <v>0.007605277455676847</v>
       </c>
       <c r="T4">
-        <v>0.1028860356756941</v>
+        <v>0.00821887464552111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.809644</v>
+        <v>0.04979866666666666</v>
       </c>
       <c r="H5">
-        <v>2.428932</v>
+        <v>0.149396</v>
       </c>
       <c r="I5">
-        <v>0.3374918898595159</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="J5">
-        <v>0.4027944001221849</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>109.2851675</v>
+        <v>156.6465685</v>
       </c>
       <c r="N5">
-        <v>218.570335</v>
+        <v>313.293137</v>
       </c>
       <c r="O5">
-        <v>0.1980579484228624</v>
+        <v>0.223971242892229</v>
       </c>
       <c r="P5">
-        <v>0.141371909038148</v>
+        <v>0.1613608953572767</v>
       </c>
       <c r="Q5">
-        <v>88.48208015537</v>
+        <v>7.800790249208666</v>
       </c>
       <c r="R5">
-        <v>530.89248093222</v>
+        <v>46.804741495252</v>
       </c>
       <c r="S5">
-        <v>0.06684295131493037</v>
+        <v>0.01075211779856363</v>
       </c>
       <c r="T5">
-        <v>0.0569438132951489</v>
+        <v>0.007746402317363465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.809644</v>
+        <v>0.04979866666666666</v>
       </c>
       <c r="H6">
-        <v>2.428932</v>
+        <v>0.149396</v>
       </c>
       <c r="I6">
-        <v>0.3374918898595159</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="J6">
-        <v>0.4027944001221849</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>105.580288</v>
+        <v>224.5584563333333</v>
       </c>
       <c r="N6">
-        <v>316.740864</v>
+        <v>673.675369</v>
       </c>
       <c r="O6">
-        <v>0.1913435804101683</v>
+        <v>0.3210707840493613</v>
       </c>
       <c r="P6">
-        <v>0.2048688840325582</v>
+        <v>0.3469749186429952</v>
       </c>
       <c r="Q6">
-        <v>85.482446697472</v>
+        <v>11.18271171412489</v>
       </c>
       <c r="R6">
-        <v>769.342020277248</v>
+        <v>100.644405427124</v>
       </c>
       <c r="S6">
-        <v>0.06457690656511393</v>
+        <v>0.01541354527124293</v>
       </c>
       <c r="T6">
-        <v>0.08252003924759574</v>
+        <v>0.01665711700404177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.256752</v>
+        <v>0.809644</v>
       </c>
       <c r="H7">
-        <v>0.7702559999999999</v>
+        <v>2.428932</v>
       </c>
       <c r="I7">
-        <v>0.1070244671796622</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="J7">
-        <v>0.1277330132998839</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.80994433333333</v>
+        <v>16.92841533333333</v>
       </c>
       <c r="N7">
-        <v>44.429833</v>
+        <v>50.785246</v>
       </c>
       <c r="O7">
-        <v>0.02684012165618721</v>
+        <v>0.0242040298661412</v>
       </c>
       <c r="P7">
-        <v>0.02873734127486288</v>
+        <v>0.0261568218313686</v>
       </c>
       <c r="Q7">
-        <v>3.802482827472</v>
+        <v>13.70598990414133</v>
       </c>
       <c r="R7">
-        <v>34.222345447248</v>
+        <v>123.353909137272</v>
       </c>
       <c r="S7">
-        <v>0.002872549719290749</v>
+        <v>0.01889147295175651</v>
       </c>
       <c r="T7">
-        <v>0.003670707195265362</v>
+        <v>0.02041564544681311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.256752</v>
+        <v>0.809644</v>
       </c>
       <c r="H8">
-        <v>0.7702559999999999</v>
+        <v>2.428932</v>
       </c>
       <c r="I8">
-        <v>0.1070244671796622</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="J8">
-        <v>0.1277330132998839</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>571.412498</v>
       </c>
       <c r="O8">
-        <v>0.3451910557977076</v>
+        <v>0.2723327394629209</v>
       </c>
       <c r="P8">
-        <v>0.3695912150682156</v>
+        <v>0.2943046668003394</v>
       </c>
       <c r="Q8">
-        <v>48.903767228832</v>
+        <v>154.2135668435707</v>
       </c>
       <c r="R8">
-        <v>440.133905059488</v>
+        <v>1387.922101592136</v>
       </c>
       <c r="S8">
-        <v>0.0369438888219347</v>
+        <v>0.2125582644664677</v>
       </c>
       <c r="T8">
-        <v>0.04720899958982863</v>
+        <v>0.2297075604014167</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.256752</v>
+        <v>0.809644</v>
       </c>
       <c r="H9">
-        <v>0.7702559999999999</v>
+        <v>2.428932</v>
       </c>
       <c r="I9">
-        <v>0.1070244671796622</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="J9">
-        <v>0.1277330132998839</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.637568</v>
+        <v>110.8005546666667</v>
       </c>
       <c r="N9">
-        <v>394.912704</v>
+        <v>332.401664</v>
       </c>
       <c r="O9">
-        <v>0.2385672937130745</v>
+        <v>0.1584212037293475</v>
       </c>
       <c r="P9">
-        <v>0.2554306505862154</v>
+        <v>0.17120269736802</v>
       </c>
       <c r="Q9">
-        <v>33.798208859136</v>
+        <v>89.70900428253866</v>
       </c>
       <c r="R9">
-        <v>304.1838797322239</v>
+        <v>807.3810385428479</v>
       </c>
       <c r="S9">
-        <v>0.02553253749613577</v>
+        <v>0.123649239477443</v>
       </c>
       <c r="T9">
-        <v>0.03262692668852706</v>
+        <v>0.1336253154736063</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.256752</v>
+        <v>0.809644</v>
       </c>
       <c r="H10">
-        <v>0.7702559999999999</v>
+        <v>2.428932</v>
       </c>
       <c r="I10">
-        <v>0.1070244671796622</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="J10">
-        <v>0.1277330132998839</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>109.2851675</v>
+        <v>156.6465685</v>
       </c>
       <c r="N10">
-        <v>218.570335</v>
+        <v>313.293137</v>
       </c>
       <c r="O10">
-        <v>0.1980579484228624</v>
+        <v>0.223971242892229</v>
       </c>
       <c r="P10">
-        <v>0.141371909038148</v>
+        <v>0.1613608953572767</v>
       </c>
       <c r="Q10">
-        <v>28.05918532596</v>
+        <v>126.827954306614</v>
       </c>
       <c r="R10">
-        <v>168.35511195576</v>
+        <v>760.967725839684</v>
       </c>
       <c r="S10">
-        <v>0.02119704640065386</v>
+        <v>0.174811661548507</v>
       </c>
       <c r="T10">
-        <v>0.01805785993739973</v>
+        <v>0.1259436964411248</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.256752</v>
+        <v>0.809644</v>
       </c>
       <c r="H11">
-        <v>0.7702559999999999</v>
+        <v>2.428932</v>
       </c>
       <c r="I11">
-        <v>0.1070244671796622</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="J11">
-        <v>0.1277330132998839</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>105.580288</v>
+        <v>224.5584563333333</v>
       </c>
       <c r="N11">
-        <v>316.740864</v>
+        <v>673.675369</v>
       </c>
       <c r="O11">
-        <v>0.1913435804101683</v>
+        <v>0.3210707840493613</v>
       </c>
       <c r="P11">
-        <v>0.2048688840325582</v>
+        <v>0.3469749186429952</v>
       </c>
       <c r="Q11">
-        <v>27.107950104576</v>
+        <v>181.8124068195453</v>
       </c>
       <c r="R11">
-        <v>243.971550941184</v>
+        <v>1636.311661375908</v>
       </c>
       <c r="S11">
-        <v>0.02047844474164711</v>
+        <v>0.2505987666521904</v>
       </c>
       <c r="T11">
-        <v>0.02616851988886313</v>
+        <v>0.2708171873334038</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1151,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.1668055</v>
+        <v>0.036349</v>
       </c>
       <c r="H12">
-        <v>2.333611</v>
+        <v>0.109047</v>
       </c>
       <c r="I12">
-        <v>0.4863710387447784</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="J12">
-        <v>0.3869871379122726</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.80994433333333</v>
+        <v>16.92841533333333</v>
       </c>
       <c r="N12">
-        <v>44.429833</v>
+        <v>50.785246</v>
       </c>
       <c r="O12">
-        <v>0.02684012165618721</v>
+        <v>0.0242040298661412</v>
       </c>
       <c r="P12">
-        <v>0.02873734127486288</v>
+        <v>0.0261568218313686</v>
       </c>
       <c r="Q12">
-        <v>17.28032450282717</v>
+        <v>0.6153309689513333</v>
       </c>
       <c r="R12">
-        <v>103.681947016963</v>
+        <v>5.537978720562</v>
       </c>
       <c r="S12">
-        <v>0.013054257849956</v>
+        <v>0.0008481334392935627</v>
       </c>
       <c r="T12">
-        <v>0.0111209814511674</v>
+        <v>0.0009165612248669906</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,25 +1213,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.1668055</v>
+        <v>0.036349</v>
       </c>
       <c r="H13">
-        <v>2.333611</v>
+        <v>0.109047</v>
       </c>
       <c r="I13">
-        <v>0.4863710387447784</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="J13">
-        <v>0.3869871379122726</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>571.412498</v>
       </c>
       <c r="O13">
-        <v>0.3451910557977076</v>
+        <v>0.2723327394629209</v>
       </c>
       <c r="P13">
-        <v>0.3695912150682156</v>
+        <v>0.2943046668003394</v>
       </c>
       <c r="Q13">
-        <v>222.2424151450464</v>
+        <v>6.923424296600666</v>
       </c>
       <c r="R13">
-        <v>1333.454490870278</v>
+        <v>62.310818669406</v>
       </c>
       <c r="S13">
-        <v>0.1678909323737378</v>
+        <v>0.009542811847048372</v>
       </c>
       <c r="T13">
-        <v>0.1430270465167679</v>
+        <v>0.01031273017898125</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.1668055</v>
+        <v>0.036349</v>
       </c>
       <c r="H14">
-        <v>2.333611</v>
+        <v>0.109047</v>
       </c>
       <c r="I14">
-        <v>0.4863710387447784</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="J14">
-        <v>0.3869871379122726</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>131.637568</v>
+        <v>110.8005546666667</v>
       </c>
       <c r="N14">
-        <v>394.912704</v>
+        <v>332.401664</v>
       </c>
       <c r="O14">
-        <v>0.2385672937130745</v>
+        <v>0.1584212037293475</v>
       </c>
       <c r="P14">
-        <v>0.2554306505862154</v>
+        <v>0.17120269736802</v>
       </c>
       <c r="Q14">
-        <v>153.595438349024</v>
+        <v>4.027489361578666</v>
       </c>
       <c r="R14">
-        <v>921.5726300941441</v>
+        <v>36.247404254208</v>
       </c>
       <c r="S14">
-        <v>0.1160322224537587</v>
+        <v>0.005551237588082633</v>
       </c>
       <c r="T14">
-        <v>0.09884837640542926</v>
+        <v>0.005999113921859625</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.1668055</v>
+        <v>0.036349</v>
       </c>
       <c r="H15">
-        <v>2.333611</v>
+        <v>0.109047</v>
       </c>
       <c r="I15">
-        <v>0.4863710387447784</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="J15">
-        <v>0.3869871379122726</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>109.2851675</v>
+        <v>156.6465685</v>
       </c>
       <c r="N15">
-        <v>218.570335</v>
+        <v>313.293137</v>
       </c>
       <c r="O15">
-        <v>0.1980579484228624</v>
+        <v>0.223971242892229</v>
       </c>
       <c r="P15">
-        <v>0.141371909038148</v>
+        <v>0.1613608953572767</v>
       </c>
       <c r="Q15">
-        <v>127.5145345074213</v>
+        <v>5.6939461184065</v>
       </c>
       <c r="R15">
-        <v>510.0581380296851</v>
+        <v>34.163676710439</v>
       </c>
       <c r="S15">
-        <v>0.09632965010608735</v>
+        <v>0.007848176588261856</v>
       </c>
       <c r="T15">
-        <v>0.05470911045986702</v>
+        <v>0.005654247325909219</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.1668055</v>
+        <v>0.036349</v>
       </c>
       <c r="H16">
-        <v>2.333611</v>
+        <v>0.109047</v>
       </c>
       <c r="I16">
-        <v>0.4863710387447784</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="J16">
-        <v>0.3869871379122726</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>105.580288</v>
+        <v>224.5584563333333</v>
       </c>
       <c r="N16">
-        <v>316.740864</v>
+        <v>673.675369</v>
       </c>
       <c r="O16">
-        <v>0.1913435804101683</v>
+        <v>0.3210707840493613</v>
       </c>
       <c r="P16">
-        <v>0.2048688840325582</v>
+        <v>0.3469749186429952</v>
       </c>
       <c r="Q16">
-        <v>123.191660729984</v>
+        <v>8.162475329260333</v>
       </c>
       <c r="R16">
-        <v>739.1499643799041</v>
+        <v>73.46227796334301</v>
       </c>
       <c r="S16">
-        <v>0.09306397596123858</v>
+        <v>0.01125064172530207</v>
       </c>
       <c r="T16">
-        <v>0.07928162307904098</v>
+        <v>0.01215834853637141</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1658013333333333</v>
+        <v>0.141536</v>
       </c>
       <c r="H17">
-        <v>0.497404</v>
+        <v>0.424608</v>
       </c>
       <c r="I17">
-        <v>0.06911260421604336</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="J17">
-        <v>0.0824854486656585</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.80994433333333</v>
+        <v>16.92841533333333</v>
       </c>
       <c r="N17">
-        <v>44.429833</v>
+        <v>50.785246</v>
       </c>
       <c r="O17">
-        <v>0.02684012165618721</v>
+        <v>0.0242040298661412</v>
       </c>
       <c r="P17">
-        <v>0.02873734127486288</v>
+        <v>0.0261568218313686</v>
       </c>
       <c r="Q17">
-        <v>2.455508517059111</v>
+        <v>2.395980192618667</v>
       </c>
       <c r="R17">
-        <v>22.099576653532</v>
+        <v>21.563821733568</v>
       </c>
       <c r="S17">
-        <v>0.001854990705134521</v>
+        <v>0.003302468141182803</v>
       </c>
       <c r="T17">
-        <v>0.002370412488515211</v>
+        <v>0.003568912749257871</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1523,7 +1523,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1658013333333333</v>
+        <v>0.141536</v>
       </c>
       <c r="H18">
-        <v>0.497404</v>
+        <v>0.424608</v>
       </c>
       <c r="I18">
-        <v>0.06911260421604336</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="J18">
-        <v>0.0824854486656585</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>571.412498</v>
       </c>
       <c r="O18">
-        <v>0.3451910557977076</v>
+        <v>0.2723327394629209</v>
       </c>
       <c r="P18">
-        <v>0.3695912150682156</v>
+        <v>0.2943046668003394</v>
       </c>
       <c r="Q18">
-        <v>31.58031801724356</v>
+        <v>26.95847977230933</v>
       </c>
       <c r="R18">
-        <v>284.222862155192</v>
+        <v>242.626317950784</v>
       </c>
       <c r="S18">
-        <v>0.02385705281826511</v>
+        <v>0.03715787002624112</v>
       </c>
       <c r="T18">
-        <v>0.03048589719778765</v>
+        <v>0.04015578361474292</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,7 +1585,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1658013333333333</v>
+        <v>0.141536</v>
       </c>
       <c r="H19">
-        <v>0.497404</v>
+        <v>0.424608</v>
       </c>
       <c r="I19">
-        <v>0.06911260421604336</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="J19">
-        <v>0.0824854486656585</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>131.637568</v>
+        <v>110.8005546666667</v>
       </c>
       <c r="N19">
-        <v>394.912704</v>
+        <v>332.401664</v>
       </c>
       <c r="O19">
-        <v>0.2385672937130745</v>
+        <v>0.1584212037293475</v>
       </c>
       <c r="P19">
-        <v>0.2554306505862154</v>
+        <v>0.17120269736802</v>
       </c>
       <c r="Q19">
-        <v>21.82568429115733</v>
+        <v>15.68226730530133</v>
       </c>
       <c r="R19">
-        <v>196.431158620416</v>
+        <v>141.140405747712</v>
       </c>
       <c r="S19">
-        <v>0.01648800694928429</v>
+        <v>0.02161544920814503</v>
       </c>
       <c r="T19">
-        <v>0.02106931181656503</v>
+        <v>0.02335939332703304</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.1658013333333333</v>
+        <v>0.141536</v>
       </c>
       <c r="H20">
-        <v>0.497404</v>
+        <v>0.424608</v>
       </c>
       <c r="I20">
-        <v>0.06911260421604336</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="J20">
-        <v>0.0824854486656585</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>109.2851675</v>
+        <v>156.6465685</v>
       </c>
       <c r="N20">
-        <v>218.570335</v>
+        <v>313.293137</v>
       </c>
       <c r="O20">
-        <v>0.1980579484228624</v>
+        <v>0.223971242892229</v>
       </c>
       <c r="P20">
-        <v>0.141371909038148</v>
+        <v>0.1613608953572767</v>
       </c>
       <c r="Q20">
-        <v>18.11962648505667</v>
+        <v>22.171128719216</v>
       </c>
       <c r="R20">
-        <v>108.71775891034</v>
+        <v>133.026772315296</v>
       </c>
       <c r="S20">
-        <v>0.01368830060119082</v>
+        <v>0.03055928695689647</v>
       </c>
       <c r="T20">
-        <v>0.0116611253457323</v>
+        <v>0.02201654927287923</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.1658013333333333</v>
+        <v>0.141536</v>
       </c>
       <c r="H21">
-        <v>0.497404</v>
+        <v>0.424608</v>
       </c>
       <c r="I21">
-        <v>0.06911260421604336</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="J21">
-        <v>0.0824854486656585</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>105.580288</v>
+        <v>224.5584563333333</v>
       </c>
       <c r="N21">
-        <v>316.740864</v>
+        <v>673.675369</v>
       </c>
       <c r="O21">
-        <v>0.1913435804101683</v>
+        <v>0.3210707840493613</v>
       </c>
       <c r="P21">
-        <v>0.2048688840325582</v>
+        <v>0.3469749186429952</v>
       </c>
       <c r="Q21">
-        <v>17.50535252411733</v>
+        <v>31.78310567559467</v>
       </c>
       <c r="R21">
-        <v>157.548172717056</v>
+        <v>286.047951080352</v>
       </c>
       <c r="S21">
-        <v>0.01322425314216863</v>
+        <v>0.04380783040062597</v>
       </c>
       <c r="T21">
-        <v>0.01689870181705833</v>
+        <v>0.04734226576917833</v>
       </c>
     </row>
   </sheetData>
